--- a/biology/Zoologie/Crotalus_molossus/Crotalus_molossus.xlsx
+++ b/biology/Zoologie/Crotalus_molossus/Crotalus_molossus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus molossus est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus molossus est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis en Arizona, au Nouveau-Mexique et dans le sud-ouest du Texas ;
 au Mexique.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce atteint en moyenne de 75 à 110 cm, avec un maximum relevé de 129,5 cm (Shaw &amp; Campbell, 1974). Les femelles sont en général plus grandes que les mâles.
 Elle est de couleur variée : vert, olive, jaune, brun, gris plus ou moins sombre, avec de nombreux motifs. La queue est toujours noire. Elle présente souvent une bande sombre qui traverse les côtés de la tête en diagonale.
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus molossus estebanensis Klauber, 1949
 Crotalus molossus molossus Baird &amp; Girard, 1853
 Crotalus molossus nigrescens Gloyd, 1936
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1853 : Catalogue of North American Reptiles in the Museum of the Smithsonian Institution. Part 1.-Serpents. Smithsonian Institution, Washington, p. 1-172 (texte intégral).
 Gloyd, 1936 : A mexican subspecies of Crotalus molossus Baird and Girard. Occasional Papers of the Museum of Zoology, University of Michigan, no 325, p. 1-5 (texte intégral).
